--- a/biology/Zoologie/Bothriurus_burmeisteri/Bothriurus_burmeisteri.xlsx
+++ b/biology/Zoologie/Bothriurus_burmeisteri/Bothriurus_burmeisteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothriurus burmeisteri est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans les provinces de Buenos Aires, de La Pampa, de San Juan, de Mendoza, de Neuquén, de Río Negro, de Chubut, de Santa Cruz et de Terre de Feu et au Chili[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine dans les provinces de Buenos Aires, de La Pampa, de San Juan, de Mendoza, de Neuquén, de Río Negro, de Chubut, de Santa Cruz et de Terre de Feu et au Chili,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 48,87 mm et la femelle 53,89 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 48,87 mm et la femelle 53,89 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Hermann Konrad Burmeister[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Hermann Konrad Burmeister.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kraepelin, 1894 : Revision der Scorpione. II. Scorpionidae und Bothriuridae. Beiheft zum Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, vol. 11, p. 1–284 (texte intégral).</t>
         </is>
